--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/巡逻功能引导.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/巡逻功能引导.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Intro_partol" sheetId="12" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_partol!$A$1:$J$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_partol!$A$1:$J$99</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
   <si>
     <t>说明</t>
   </si>
@@ -179,7 +179,7 @@
     <t>角色台词</t>
   </si>
   <si>
-    <t>小子，来我这接巡逻任务啦！</t>
+    <t>{#聂飞得意动作}快来我这接巡逻任务啦！</t>
   </si>
   <si>
     <t>跳转-标签</t>
@@ -191,40 +191,81 @@
     <t>巡逻引导1</t>
   </si>
   <si>
-    <t>小子！巡逻任务都是需要在本大爷这里接取的！</t>
+    <t>{#聂飞思考动作}{#聂飞思考表情}维系安江市日常安全，也是我们STS重要的职责之一。</t>
   </si>
   <si>
-    <t>我会汇总许多任务需求！但现在最近记得就是404溢出的任务！</t>
+    <t>日常的巡逻安防，就是不可或缺的了。</t>
   </si>
   <si>
-    <t>404的分身泄露出昭离公馆以外，现在，安江市的任何地方都有可能出现暴走的404！</t>
+    <t>&lt;z=highlight&gt;巡逻任务&lt;/z&gt;，需要矫健的身姿和敏锐的视野。{#聂飞思考动作恢复}{#聂飞待机表情}</t>
   </si>
   <si>
-    <t>接取它，我们一起去调查吧！</t>
+    <t>STS虽然藏龙卧虎，也只有本大爷可以胜任~{#聂飞得意动作}{#聂飞得意表情}</t>
+  </si>
+  <si>
+    <t>今天心情好，就免费教教你吧！</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>&lt;z=blue&gt;（那不就是让我们帮你干活嘛。。）&lt;/z&gt;{#聂飞得意动作恢复}</t>
+  </si>
+  <si>
+    <t>你说什么，喵？{#聂飞愤怒表情}</t>
+  </si>
+  <si>
+    <t>没，没什么。。</t>
+  </si>
+  <si>
+    <t>当然好处肯定少不了你的。{#聂飞思考动作}{#聂飞得意表情}
+这里的工作跟日常津贴直接挂钩。</t>
+  </si>
+  <si>
+    <t>想要多赚到&lt;z=highlight&gt;『战斗记忆』&lt;/z&gt;和&lt;z=highlight&gt;『元年币』&lt;/z&gt;，
+就多来本大爷这里完成巡逻任务。</t>
+  </si>
+  <si>
+    <t>{#聂飞思考动作恢复}目前比较紧急的任务，还是跟3-404有关的。{#聂飞待机表情}</t>
+  </si>
+  <si>
+    <t>{#聂飞紧张动作}{#聂飞紧张表情}接到群众报道，&lt;z=highlight&gt;康新雅苑&lt;/z&gt;和&lt;z=highlight&gt;槐树里小区&lt;/z&gt;发现了奇怪的电视机。</t>
+  </si>
+  <si>
+    <t>目前推测为3-404分身。
+接取它，准备开展异质物回收工作！{#聂飞紧张动作恢复}</t>
   </si>
   <si>
     <t>巡逻引导2</t>
   </si>
   <si>
-    <t>这样就接取好了！我们走！找涂凌她们！</t>
+    <t>这样就接取好了！我们走！</t>
   </si>
   <si>
     <t>巡逻引导3</t>
   </si>
   <si>
-    <t>每天都会有3个新的需求到我手上。虽然没必要每天都来做，但太懒散的话任务就放不下了！最好定期来完成！</t>
+    <t>每天都会有3个新的需求到我手上。虽然没必要每天都来做，但太懒散的话任务就放不下了！最好定期来完成！{#聂飞思考动作}{#聂飞思考表情}</t>
   </si>
   <si>
-    <t>如果觉得目前的任务难度较高，可以更换任务。但每天次数是有限制的。这次本大爷特许你不消耗次数。来更换看看吧。</t>
+    <t>如果觉得目前的任务难度较高，可以更换任务。
+但每天次数是有限制的。这次本大爷特许你不消耗次数。</t>
+  </si>
+  <si>
+    <t>试试更换看看吧。{#聂飞思考动作恢复}{#聂飞待机表情}</t>
   </si>
   <si>
     <t>巡逻引导4</t>
   </si>
   <si>
-    <t>这样就换好了！记得，接取中的任务不会被更换掉！</t>
+    <t>{#聂飞得意动作}{#聂飞得意表情}这样就换好了！记得，接取中的任务不会被更换掉！</t>
   </si>
   <si>
-    <t>巡逻相关就是这些啦，以后还请你多多帮助啊！</t>
+    <t>巡逻相关就是这些，相信我讲的也已经够明白了。</t>
+  </si>
+  <si>
+    <t>总之想要快速提升异质物等级，{#聂飞得意动作恢复}{#聂飞待机表情}
+就多来我这里赚点&lt;z=highlight&gt;『战斗记忆』&lt;/z&gt;和&lt;z=highlight&gt;『元年币』&lt;/z&gt;。</t>
   </si>
   <si>
     <t>说明文档位置</t>
@@ -252,7 +293,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,12 +355,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -474,18 +509,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,12 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,17 +881,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,31 +900,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,97 +939,97 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1007,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,102 +1052,96 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1160,13 +1186,14 @@
     <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 3" xfId="51"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2542,13 +2569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J87"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -2558,7 +2585,7 @@
     <col min="3" max="3" width="10.1333333333333" style="10" customWidth="1"/>
     <col min="4" max="4" width="13.3833333333333" style="10" customWidth="1"/>
     <col min="5" max="5" width="28.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="34.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="55.25" style="10" customWidth="1"/>
     <col min="7" max="7" width="19" style="10" customWidth="1"/>
     <col min="8" max="8" width="15.3833333333333" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="10"/>
@@ -2593,7 +2620,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="str">
-        <f ca="1">INDEX($D$5:$D$888,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$900,CELL("row")-4)</f>
         <v>角色台词</v>
       </c>
       <c r="E2" s="18" t="str">
@@ -2628,7 +2655,7 @@
 【recall代表文字居中，默认是左对齐】
 【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2712,7 +2739,7 @@
     </row>
     <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A29" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -2724,7 +2751,7 @@
     </row>
     <row r="7" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A7" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -2736,7 +2763,7 @@
     </row>
     <row r="8" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A8" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="30"/>
@@ -2755,7 +2782,7 @@
     </row>
     <row r="9" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A9" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="30"/>
@@ -2774,7 +2801,7 @@
     </row>
     <row r="10" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A10" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="30"/>
@@ -2793,7 +2820,7 @@
     </row>
     <row r="11" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A11" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="30"/>
@@ -2812,7 +2839,7 @@
     </row>
     <row r="12" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A12" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="30"/>
@@ -2831,7 +2858,7 @@
     </row>
     <row r="13" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A13" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="30"/>
@@ -2850,7 +2877,7 @@
     </row>
     <row r="14" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A14" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="30"/>
@@ -2869,7 +2896,7 @@
     </row>
     <row r="15" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A15" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B15" s="30"/>
@@ -2888,7 +2915,7 @@
     </row>
     <row r="16" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A16" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B16" s="30"/>
@@ -2907,16 +2934,16 @@
     </row>
     <row r="17" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A17" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="31"/>
@@ -2924,7 +2951,7 @@
     </row>
     <row r="18" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A18" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B18" s="30"/>
@@ -2937,7 +2964,7 @@
     </row>
     <row r="19" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A19" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B19" s="30" t="s">
@@ -2949,7 +2976,7 @@
     </row>
     <row r="20" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A20" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B20" s="31"/>
@@ -2968,7 +2995,7 @@
     </row>
     <row r="21" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A21" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C21" s="33"/>
@@ -2983,11 +3010,11 @@
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="38"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A22" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C22" s="33"/>
@@ -3002,11 +3029,11 @@
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
-      <c r="I22" s="38"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A23" s="29">
-        <f t="shared" ref="A23:A28" si="0">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B23" s="30"/>
@@ -3022,7 +3049,7 @@
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
-      <c r="I23" s="38"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A24" s="29">
@@ -3042,9 +3069,9 @@
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A25" s="29">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3057,20 +3084,18 @@
       <c r="E25" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>37</v>
-      </c>
+      <c r="F25" s="34"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A26" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="33" t="s">
         <v>32</v>
       </c>
@@ -3078,19 +3103,19 @@
         <v>30</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" s="9" customFormat="1" ht="34" customHeight="1" spans="1:9">
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A27" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="33" t="s">
         <v>32</v>
       </c>
@@ -3098,19 +3123,19 @@
         <v>30</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" s="9" customFormat="1" ht="33" customHeight="1" spans="1:9">
       <c r="A28" s="29">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
         <v>32</v>
       </c>
@@ -3118,270 +3143,337 @@
         <v>30</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A70" si="1">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="32">
-        <v>1</v>
+      <c r="B29" s="30"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A30" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A30:A41" si="1">ROW()-6</f>
         <v>24</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="32">
-        <v>1</v>
+      <c r="B30" s="30"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="38"/>
-    </row>
-    <row r="31" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A31" s="29">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="B31" s="30"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="32">
-        <v>1</v>
-      </c>
-      <c r="I31" s="38"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
+      <c r="D31" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A32" s="29">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A33" s="29">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:2">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="36"/>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="27" customHeight="1" spans="1:9">
       <c r="A34" s="29">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:6">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="36"/>
+    </row>
+    <row r="35" s="9" customFormat="1" ht="39" customHeight="1" spans="1:9">
       <c r="A35" s="29">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:6">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="36"/>
+    </row>
+    <row r="36" s="9" customFormat="1" ht="34" customHeight="1" spans="1:9">
       <c r="A36" s="29">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:6">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="36"/>
+    </row>
+    <row r="37" s="9" customFormat="1" ht="34" customHeight="1" spans="1:9">
       <c r="A37" s="29">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:6">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="36"/>
+    </row>
+    <row r="38" s="9" customFormat="1" ht="42" customHeight="1" spans="1:9">
       <c r="A38" s="29">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="36"/>
+    </row>
+    <row r="39" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A39" s="29">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:6">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="32">
+        <v>1</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="36"/>
+    </row>
+    <row r="40" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A40" s="29">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="D40" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:6">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="32">
+        <v>1</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="36"/>
+    </row>
+    <row r="41" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A41" s="29">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
+      <c r="C41" s="33"/>
       <c r="D41" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F41" s="32">
         <v>1</v>
       </c>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A39:A87" si="2">ROW()-6</f>
         <v>36</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:1">
+      <c r="A43" s="29">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44" s="29">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
+      <c r="A45" s="29">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="D45" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E45" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46" s="29">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="29">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="29">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="29">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="29">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>43</v>
+      <c r="F46" s="32">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F47" s="32">
         <v>0</v>
@@ -3389,444 +3481,572 @@
     </row>
     <row r="48" customHeight="1" spans="1:6">
       <c r="A48" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="32">
-        <v>0</v>
+      <c r="D48" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:6">
       <c r="A49" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="32">
-        <v>0</v>
+      <c r="D49" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:6">
       <c r="A50" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:6">
       <c r="A51" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="D51" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" ht="36" customHeight="1" spans="1:6">
+      <c r="D51" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:6">
       <c r="A52" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="D52" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" ht="34" customHeight="1" spans="1:6">
+      <c r="D52" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:6">
       <c r="A53" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="D53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>45</v>
+      <c r="D53" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:6">
       <c r="A54" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="D54" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:6">
+      <c r="D54" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:1">
       <c r="A55" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:6">
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
       <c r="A56" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="D56" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="32">
-        <v>1</v>
+      <c r="B56" s="30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
       <c r="A57" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="D57" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:1">
+      <c r="D57" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
       <c r="A58" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:1">
+      <c r="D58" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
       <c r="A59" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:2">
+      <c r="D59" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
       <c r="A60" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B60" s="30" t="s">
-        <v>46</v>
+      <c r="D60" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:6">
       <c r="A61" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:6">
+      <c r="D61" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" ht="36" customHeight="1" spans="1:6">
       <c r="A62" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="D62" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:6">
+      <c r="D62" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" ht="34" customHeight="1" spans="1:6">
       <c r="A63" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="D63" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:6">
+      <c r="D63" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" ht="34" customHeight="1" spans="1:6">
       <c r="A64" s="29">
-        <f t="shared" si="1"/>
+        <f>ROW()-6</f>
         <v>58</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:6">
       <c r="A65" s="29">
-        <f t="shared" si="1"/>
+        <f>ROW()-6</f>
         <v>59</v>
       </c>
-      <c r="D65" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" ht="34" customHeight="1" spans="1:6">
+      <c r="D65" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:6">
       <c r="A66" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A65:A73" si="3">ROW()-6</f>
         <v>60</v>
       </c>
-      <c r="D66" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" ht="34" customHeight="1" spans="1:6">
+      <c r="D66" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:6">
       <c r="A67" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="D67" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>48</v>
+      <c r="D67" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:6">
       <c r="A68" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="29">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="29">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:2">
+      <c r="A71" s="29">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:6">
+      <c r="A72" s="29">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="D72" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E72" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F72" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:6">
+      <c r="A73" s="29">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:6">
+      <c r="A74" s="29">
+        <f t="shared" ref="A74:A89" si="4">ROW()-6</f>
+        <v>68</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:6">
+      <c r="A75" s="29">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:6">
+      <c r="A76" s="29">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" spans="1:6">
+      <c r="A77" s="29">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" ht="34" customHeight="1" spans="1:6">
+      <c r="A78" s="29">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" ht="39" customHeight="1" spans="1:6">
+      <c r="A79" s="29">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:6">
+      <c r="A80" s="29">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:6">
-      <c r="A69" s="29">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="D69" s="32" t="s">
+    <row r="81" customHeight="1" spans="1:6">
+      <c r="A81" s="29">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="D81" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E81" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F69" s="32">
+      <c r="F81" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:6">
-      <c r="A70" s="29">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="D70" s="32" t="s">
+    <row r="82" customHeight="1" spans="1:6">
+      <c r="A82" s="29">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="D82" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E82" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="32">
+      <c r="F82" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:6">
-      <c r="A71" s="29">
-        <f t="shared" ref="A71:A87" si="2">ROW()-6</f>
-        <v>65</v>
-      </c>
-      <c r="D71" s="33" t="s">
+    <row r="83" customHeight="1" spans="1:6">
+      <c r="A83" s="29">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="D83" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33" t="s">
+      <c r="E83" s="33"/>
+      <c r="F83" s="33" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:1">
-      <c r="A72" s="29">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:1">
-      <c r="A73" s="29">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:1">
-      <c r="A74" s="29">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:2">
-      <c r="A75" s="29">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:1">
-      <c r="A76" s="29">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:1">
-      <c r="A77" s="29">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:1">
-      <c r="A78" s="29">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:1">
-      <c r="A79" s="29">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:1">
-      <c r="A80" s="29">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:1">
-      <c r="A81" s="29">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:1">
-      <c r="A82" s="29">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:1">
-      <c r="A83" s="29">
-        <f t="shared" si="2"/>
-        <v>77</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:1">
       <c r="A85" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:1">
       <c r="A86" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:1">
+    <row r="87" customHeight="1" spans="1:2">
       <c r="A87" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
+      <c r="B87" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:1">
+      <c r="A88" s="29">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:1">
+      <c r="A89" s="29">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:1">
+      <c r="A90" s="29"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:1">
+      <c r="A91" s="29"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:1">
+      <c r="A92" s="29"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:1">
+      <c r="A93" s="29"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:1">
+      <c r="A94" s="29"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:1">
+      <c r="A95" s="29"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:1">
+      <c r="A96" s="29"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:1">
+      <c r="A97" s="29"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:1">
+      <c r="A98" s="29"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:1">
+      <c r="A99" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J87">
+  <autoFilter ref="A1:J99">
     <extLst/>
   </autoFilter>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1/>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3836,7 +4056,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AM201"/>
   <sheetViews>
     <sheetView topLeftCell="T25" workbookViewId="0">
@@ -3864,10 +4084,10 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -3935,10 +4155,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="2" t="str">
         <f>IF([1]AVG指令文档!D5&lt;&gt;0,[1]AVG指令文档!D5,"")</f>
@@ -3995,7 +4215,7 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>

--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/巡逻功能引导.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/巡逻功能引导.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Intro_partol" sheetId="12" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_partol!$A$1:$J$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_partol!$A$1:$J$107</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
   <si>
     <t>说明</t>
   </si>
@@ -167,6 +167,15 @@
     <t>no_postprocessing</t>
   </si>
   <si>
+    <t>跳转-标签</t>
+  </si>
+  <si>
+    <t>rqs_完成任务报告聂飞==1</t>
+  </si>
+  <si>
+    <t>巡逻问候22</t>
+  </si>
+  <si>
     <t>设置角色</t>
   </si>
   <si>
@@ -182,10 +191,10 @@
     <t>{#聂飞得意动作}快来我这接巡逻任务啦！</t>
   </si>
   <si>
-    <t>跳转-标签</t>
+    <t>结束</t>
   </si>
   <si>
-    <t>结束</t>
+    <t>{#聂飞得意动作}完成后继续来我这继续接巡逻任务哦！</t>
   </si>
   <si>
     <t>巡逻引导1</t>
@@ -293,7 +302,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +364,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -520,7 +535,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +570,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -888,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,34 +927,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,97 +963,100 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1039,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,13 +1158,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2570,12 +2612,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -2620,7 +2662,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="str">
-        <f ca="1">INDEX($D$5:$D$900,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$908,CELL("row")-4)</f>
         <v>角色台词</v>
       </c>
       <c r="E2" s="18" t="str">
@@ -2655,7 +2697,7 @@
 【recall代表文字居中，默认是左对齐】
 【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2739,7 +2781,7 @@
     </row>
     <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="29">
-        <f t="shared" ref="A6:A29" si="0">ROW()-6</f>
+        <f>ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -2751,7 +2793,7 @@
     </row>
     <row r="7" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A7" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A7:A12" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -2837,28 +2879,30 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A12" s="29">
+    <row r="12" customFormat="1" ht="15" spans="1:10">
+      <c r="A12" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A13" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A13:A30" si="1">ROW()-6</f>
         <v>7</v>
       </c>
       <c r="B13" s="30"/>
@@ -2867,36 +2911,36 @@
         <v>32</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
     </row>
     <row r="14" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A14" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="32">
-        <v>1</v>
+      <c r="D14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
     </row>
     <row r="15" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A15" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B15" s="30"/>
@@ -2905,7 +2949,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="32">
         <v>1</v>
@@ -2915,7 +2959,7 @@
     </row>
     <row r="16" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B16" s="30"/>
@@ -2924,7 +2968,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="32">
         <v>1</v>
@@ -2934,41 +2978,47 @@
     </row>
     <row r="17" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A17" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33" t="s">
-        <v>35</v>
+      <c r="D17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
     </row>
     <row r="18" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A18" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
     </row>
     <row r="19" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A19" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C19" s="31"/>
       <c r="G19" s="31"/>
@@ -2976,750 +3026,767 @@
     </row>
     <row r="20" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A20" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A20:A37" si="2">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="32">
-        <v>0</v>
+      <c r="D20" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+    <row r="21" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A21" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="32">
-        <v>0</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="36"/>
-    </row>
-    <row r="22" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A22" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A23" s="29">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="32">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A24" s="29">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F24" s="32">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A25" s="29">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A26" s="29">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A27" s="29">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A28" s="29">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="32">
         <v>0</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
-      <c r="A23" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
-      <c r="A24" s="29">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-    </row>
-    <row r="25" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
-      <c r="A25" s="29">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="36"/>
-    </row>
-    <row r="26" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
-      <c r="A26" s="29">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="36"/>
-    </row>
-    <row r="27" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
-      <c r="A27" s="29">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="36"/>
-    </row>
-    <row r="28" s="9" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A28" s="29">
-        <f t="shared" si="0"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="A29" s="29">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="36"/>
-    </row>
-    <row r="29" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
-      <c r="A29" s="29">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>40</v>
+      <c r="E29" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="36"/>
-    </row>
-    <row r="30" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A30" s="29">
-        <f t="shared" ref="A30:A41" si="1">ROW()-6</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B30" s="30"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>41</v>
+      <c r="D30" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="36"/>
-    </row>
-    <row r="31" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A31" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A32" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A33" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>45</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F33" s="34"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
-      <c r="I33" s="36"/>
-    </row>
-    <row r="34" s="9" customFormat="1" ht="27" customHeight="1" spans="1:9">
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A34" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
-      <c r="I34" s="36"/>
-    </row>
-    <row r="35" s="9" customFormat="1" ht="39" customHeight="1" spans="1:9">
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A35" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="36"/>
-    </row>
-    <row r="36" s="9" customFormat="1" ht="34" customHeight="1" spans="1:9">
+      <c r="I35" s="41"/>
+    </row>
+    <row r="36" s="9" customFormat="1" ht="33" customHeight="1" spans="1:9">
       <c r="A36" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="36"/>
-    </row>
-    <row r="37" s="9" customFormat="1" ht="34" customHeight="1" spans="1:9">
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A37" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
-      <c r="I37" s="36"/>
-    </row>
-    <row r="38" s="9" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="I37" s="41"/>
+    </row>
+    <row r="38" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A38" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A38:A49" si="3">ROW()-6</f>
         <v>32</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="36"/>
-    </row>
-    <row r="39" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" s="9" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A39" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="32">
-        <v>1</v>
+      <c r="B39" s="30"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="36"/>
+      <c r="I39" s="41"/>
     </row>
     <row r="40" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A40" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="32">
-        <v>1</v>
+      <c r="D40" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="36"/>
+      <c r="I40" s="41"/>
     </row>
     <row r="41" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A41" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="32">
-        <v>1</v>
-      </c>
-      <c r="I41" s="36"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:6">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" s="9" customFormat="1" ht="27" customHeight="1" spans="1:9">
       <c r="A42" s="29">
-        <f t="shared" ref="A39:A87" si="2">ROW()-6</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:1">
+      <c r="E42" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="41"/>
+    </row>
+    <row r="43" s="9" customFormat="1" ht="39" customHeight="1" spans="1:9">
       <c r="A43" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:2">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="34" customHeight="1" spans="1:9">
       <c r="A44" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:6">
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="41"/>
+    </row>
+    <row r="45" s="9" customFormat="1" ht="34" customHeight="1" spans="1:9">
       <c r="A45" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D45" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:6">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="41"/>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="42" customHeight="1" spans="1:9">
       <c r="A46" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="D46" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:6">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="41"/>
+    </row>
+    <row r="47" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
       <c r="A47" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="32">
+        <v>1</v>
+      </c>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="41"/>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="A48" s="29">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="32">
+        <v>1</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="41"/>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="14.1" customHeight="1" spans="1:9">
+      <c r="A49" s="29">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:6">
-      <c r="A48" s="29">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:6">
-      <c r="A49" s="29">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>31</v>
-      </c>
+      <c r="F49" s="32">
+        <v>1</v>
+      </c>
+      <c r="I49" s="41"/>
     </row>
     <row r="50" customHeight="1" spans="1:6">
       <c r="A50" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A47:A95" si="4">ROW()-6</f>
         <v>44</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
       <c r="A51" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:6">
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
       <c r="A52" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="D52" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="32">
-        <v>1</v>
+      <c r="B52" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:6">
       <c r="A53" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F53" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:6">
       <c r="A54" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:1">
+      <c r="D54" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
       <c r="A55" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:2">
+      <c r="D55" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
       <c r="A56" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="B56" s="30" t="s">
-        <v>53</v>
+      <c r="D56" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
       <c r="A57" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="32">
-        <v>0</v>
+      <c r="D57" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:6">
       <c r="A58" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="32">
-        <v>0</v>
+      <c r="D58" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:6">
       <c r="A59" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F59" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:6">
       <c r="A60" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="D60" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>28</v>
+      <c r="D60" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:6">
       <c r="A61" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62" s="29">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="D62" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" ht="36" customHeight="1" spans="1:6">
-      <c r="A62" s="29">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" ht="34" customHeight="1" spans="1:6">
+      <c r="E62" s="33"/>
+      <c r="F62" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:1">
       <c r="A63" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="D63" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" ht="34" customHeight="1" spans="1:6">
+    </row>
+    <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="D64" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="34" t="s">
+      <c r="B64" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:6">
       <c r="A65" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D65" s="32" t="s">
@@ -3729,12 +3796,12 @@
         <v>23</v>
       </c>
       <c r="F65" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:6">
       <c r="A66" s="29">
-        <f t="shared" ref="A65:A73" si="3">ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D66" s="32" t="s">
@@ -3744,12 +3811,12 @@
         <v>24</v>
       </c>
       <c r="F66" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:6">
       <c r="A67" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D67" s="32" t="s">
@@ -3759,166 +3826,166 @@
         <v>25</v>
       </c>
       <c r="F67" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:6">
       <c r="A68" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D68" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:6">
+      <c r="A69" s="29">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33" t="s">
+    </row>
+    <row r="70" ht="36" customHeight="1" spans="1:6">
+      <c r="A70" s="29">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="D70" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:1">
-      <c r="A69" s="29">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:1">
-      <c r="A70" s="29">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:2">
+      <c r="E70" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" ht="34" customHeight="1" spans="1:6">
       <c r="A71" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="B71" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:6">
+      <c r="D71" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" ht="34" customHeight="1" spans="1:6">
       <c r="A72" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="D72" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" s="32">
-        <v>0</v>
+      <c r="D72" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:6">
       <c r="A73" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D73" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:6">
       <c r="A74" s="29">
-        <f t="shared" ref="A74:A89" si="4">ROW()-6</f>
+        <f t="shared" ref="A73:A81" si="5">ROW()-6</f>
         <v>68</v>
       </c>
       <c r="D74" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F74" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:6">
       <c r="A75" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="D75" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>28</v>
+      <c r="D75" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:6">
       <c r="A76" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="D76" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" ht="20" customHeight="1" spans="1:6">
+      <c r="E76" s="33"/>
+      <c r="F76" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:1">
       <c r="A77" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="D77" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" ht="34" customHeight="1" spans="1:6">
+    </row>
+    <row r="78" customHeight="1" spans="1:1">
       <c r="A78" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="D78" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" ht="39" customHeight="1" spans="1:6">
+    </row>
+    <row r="79" customHeight="1" spans="1:2">
       <c r="A79" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="D79" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F79" s="34" t="s">
+      <c r="B79" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:6">
       <c r="A80" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="D80" s="32" t="s">
@@ -3928,12 +3995,12 @@
         <v>23</v>
       </c>
       <c r="F80" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:6">
       <c r="A81" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="D81" s="32" t="s">
@@ -3943,12 +4010,12 @@
         <v>24</v>
       </c>
       <c r="F81" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:6">
       <c r="A82" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A82:A97" si="6">ROW()-6</f>
         <v>76</v>
       </c>
       <c r="D82" s="32" t="s">
@@ -3958,84 +4025,180 @@
         <v>25</v>
       </c>
       <c r="F82" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:6">
       <c r="A83" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="D83" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:6">
+      <c r="A84" s="29">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33" t="s">
+    </row>
+    <row r="85" ht="20" customHeight="1" spans="1:6">
+      <c r="A85" s="29">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="D85" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:1">
-      <c r="A84" s="29">
-        <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:1">
-      <c r="A85" s="29">
-        <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:1">
+      <c r="E85" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" ht="34" customHeight="1" spans="1:6">
       <c r="A86" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:2">
+      <c r="D86" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" ht="39" customHeight="1" spans="1:6">
       <c r="A87" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="D87" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:1">
+      <c r="E87" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:6">
       <c r="A88" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:1">
+      <c r="D88" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:6">
       <c r="A89" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:1">
-      <c r="A90" s="29"/>
-    </row>
-    <row r="91" customHeight="1" spans="1:1">
-      <c r="A91" s="29"/>
+      <c r="D89" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:6">
+      <c r="A90" s="29">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:6">
+      <c r="A91" s="29">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="92" customHeight="1" spans="1:1">
-      <c r="A92" s="29"/>
+      <c r="A92" s="29">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="93" customHeight="1" spans="1:1">
-      <c r="A93" s="29"/>
+      <c r="A93" s="29">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="94" customHeight="1" spans="1:1">
-      <c r="A94" s="29"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:1">
-      <c r="A95" s="29"/>
+      <c r="A94" s="29">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:2">
+      <c r="A95" s="29">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="96" customHeight="1" spans="1:1">
-      <c r="A96" s="29"/>
+      <c r="A96" s="29">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="97" customHeight="1" spans="1:1">
-      <c r="A97" s="29"/>
+      <c r="A97" s="29">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="98" customHeight="1" spans="1:1">
       <c r="A98" s="29"/>
@@ -4043,8 +4206,32 @@
     <row r="99" customHeight="1" spans="1:1">
       <c r="A99" s="29"/>
     </row>
+    <row r="100" customHeight="1" spans="1:1">
+      <c r="A100" s="29"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:1">
+      <c r="A101" s="29"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:1">
+      <c r="A102" s="29"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:1">
+      <c r="A103" s="29"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:1">
+      <c r="A104" s="29"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:1">
+      <c r="A105" s="29"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:1">
+      <c r="A106" s="29"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:1">
+      <c r="A107" s="29"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J99">
+  <autoFilter ref="A1:J107">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4084,10 +4271,10 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -4155,10 +4342,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="2" t="str">
         <f>IF([1]AVG指令文档!D5&lt;&gt;0,[1]AVG指令文档!D5,"")</f>
@@ -4215,7 +4402,7 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
